--- a/biology/Médecine/Vaccin_à_sous-unités/Vaccin_à_sous-unités.xlsx
+++ b/biology/Médecine/Vaccin_à_sous-unités/Vaccin_à_sous-unités.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vaccin_%C3%A0_sous-unit%C3%A9s</t>
+          <t>Vaccin_à_sous-unités</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un vaccin à sous-unités ou vaccin sous-unitaire[1] est un vaccin qui contient des parties purifiées d'agents pathogènes qui sont antigéniques ou nécessaires pour induire une réponse immunitaire protectrice[2],[3].
-Au contraire d'un vaccin à virus atténué ou à virus inactivé, il ne contient que les parties antigéniques telles que des sous-unités protéiques, des polysaccharides[2],[3] ou des peptides.
-Puisqu'il ne contient aucune partie « vivante » de l'agent pathogène, il n'y a aucun risque qu'il introduise la maladie, il est plus sécuritaire et plus stable qu'un vaccin qui contient le pathogène complet[2].
-Il présente deux autres avantages : la technologie de production est bien documentée au XXIe siècle et il est efficace pour les personnes immunosupprimée[3].
-Sa création, sa production et son inoculation présente des désavantages : la recherche de la bonne combinaison de fragments antigéniques exige du temps, il est plus complexe à fabriquer que certains vaccins à ARN, il peut exiger des adjuvants immunologiques pour augmenter son efficacité et des doses de rappel peuvent être nécessaires pour la même raison[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un vaccin à sous-unités ou vaccin sous-unitaire est un vaccin qui contient des parties purifiées d'agents pathogènes qui sont antigéniques ou nécessaires pour induire une réponse immunitaire protectrice,.
+Au contraire d'un vaccin à virus atténué ou à virus inactivé, il ne contient que les parties antigéniques telles que des sous-unités protéiques, des polysaccharides, ou des peptides.
+Puisqu'il ne contient aucune partie « vivante » de l'agent pathogène, il n'y a aucun risque qu'il introduise la maladie, il est plus sécuritaire et plus stable qu'un vaccin qui contient le pathogène complet.
+Il présente deux autres avantages : la technologie de production est bien documentée au XXIe siècle et il est efficace pour les personnes immunosupprimée.
+Sa création, sa production et son inoculation présente des désavantages : la recherche de la bonne combinaison de fragments antigéniques exige du temps, il est plus complexe à fabriquer que certains vaccins à ARN, il peut exiger des adjuvants immunologiques pour augmenter son efficacité et des doses de rappel peuvent être nécessaires pour la même raison.
 </t>
         </is>
       </c>
